--- a/VP变量接口.xlsx
+++ b/VP变量接口.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyCloud\TQWorking\DWIN\T5L_DWIN\HAC02D1\T5L_PRJ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyCloud\TQWorking\DWIN\T5L_DWIN\HAC02D1\T5L_PRJ-eksi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F194791-23A7-4E97-9277-576E79680549}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0237967A-8AC1-455D-A14C-9C7A9DD61C8D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4005" yWindow="0" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C51 VP变量" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="406">
   <si>
     <t>0x3000</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1536,10 +1536,6 @@
   </si>
   <si>
     <t>0xa0a4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回风湿度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2124,7 +2120,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
@@ -2849,24 +2845,24 @@
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C58" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D58" t="s">
         <v>89</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C59" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D59" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
   </sheetData>
@@ -2882,10 +2878,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{252BE42E-61B8-408E-8466-FDAD5A0E5536}">
-  <dimension ref="B1:E195"/>
+  <dimension ref="B1:E196"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2913,157 +2909,157 @@
         <v>0</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D2" s="12">
         <v>1</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="17"/>
       <c r="C3" s="12" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D3" s="12">
         <v>1</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="17"/>
       <c r="C4" s="12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D4" s="12">
         <v>1</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="17"/>
       <c r="C5" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="D5" s="12">
+        <v>1</v>
+      </c>
+      <c r="E5" s="14" t="s">
         <v>375</v>
-      </c>
-      <c r="D5" s="12">
-        <v>1</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="17"/>
       <c r="C6" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="D6" s="12">
+        <v>1</v>
+      </c>
+      <c r="E6" s="14" t="s">
         <v>377</v>
-      </c>
-      <c r="D6" s="12">
-        <v>1</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="17"/>
       <c r="C7" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D7" s="12">
         <v>1</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="17"/>
       <c r="C8" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="D8" s="12">
+        <v>1</v>
+      </c>
+      <c r="E8" s="14" t="s">
         <v>389</v>
-      </c>
-      <c r="D8" s="12">
-        <v>1</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="17"/>
       <c r="C9" s="12" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D9" s="12">
         <v>1</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="17"/>
       <c r="C10" s="12" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D10" s="12">
         <v>1</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="17"/>
       <c r="C11" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D11" s="12">
         <v>1</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="17"/>
       <c r="C12" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="D12" s="12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="14" t="s">
         <v>380</v>
-      </c>
-      <c r="D12" s="12">
-        <v>1</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="17"/>
       <c r="C13" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="D13" s="12">
+        <v>1</v>
+      </c>
+      <c r="E13" s="14" t="s">
         <v>386</v>
-      </c>
-      <c r="D13" s="12">
-        <v>1</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="17"/>
       <c r="C14" s="12" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D14" s="12">
         <v>1</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
@@ -3081,13 +3077,13 @@
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="17"/>
       <c r="C16" s="12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D16" s="12">
         <v>1</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
@@ -3123,183 +3119,183 @@
         <v>1</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>368</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="17">
+      <c r="B20" s="17"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="17">
         <v>10</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C21" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="D20" s="12">
-        <v>1</v>
-      </c>
-      <c r="E20" s="14" t="s">
+      <c r="D21" s="12">
+        <v>1</v>
+      </c>
+      <c r="E21" s="14" t="s">
         <v>138</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="17"/>
-      <c r="C21" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="D21" s="12">
-        <v>1</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="17"/>
       <c r="C22" s="12" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D22" s="12">
         <v>1</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="17"/>
       <c r="C23" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D23" s="12">
         <v>1</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="17"/>
       <c r="C24" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D24" s="12">
         <v>1</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="17"/>
       <c r="C25" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D25" s="12">
         <v>1</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="17"/>
       <c r="C26" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D26" s="12">
         <v>1</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="17"/>
       <c r="C27" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D27" s="12">
         <v>1</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28" s="17"/>
       <c r="C28" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D28" s="12">
         <v>1</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" s="17"/>
       <c r="C29" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D29" s="12">
         <v>1</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30" s="17"/>
       <c r="C30" s="12" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="D30" s="12">
         <v>1</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B31" s="17"/>
       <c r="C31" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="D31" s="12">
+        <v>1</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B32" s="17"/>
+      <c r="C32" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="D31" s="12">
-        <v>1</v>
-      </c>
-      <c r="E31" s="14" t="s">
+      <c r="D32" s="12">
+        <v>1</v>
+      </c>
+      <c r="E32" s="14" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B32" s="17">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B33" s="17">
         <v>12</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C33" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="D33" s="12">
+        <v>1</v>
+      </c>
+      <c r="E33" s="14" t="s">
         <v>393</v>
       </c>
-      <c r="D32" s="12">
-        <v>1</v>
-      </c>
-      <c r="E32" s="14" t="s">
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B34" s="17"/>
+      <c r="C34" s="12" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B33" s="17"/>
-      <c r="C33" s="12" t="s">
-        <v>395</v>
-      </c>
-      <c r="D33" s="12">
-        <v>1</v>
-      </c>
-      <c r="E33" s="14" t="s">
+      <c r="D34" s="12">
+        <v>1</v>
+      </c>
+      <c r="E34" s="14" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B34" s="15"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35" s="15"/>
@@ -3332,22 +3328,11 @@
       <c r="B44" s="15"/>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B45" s="13">
-        <v>13</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="D45" s="12">
-        <v>1</v>
-      </c>
-      <c r="E45" s="14" t="s">
-        <v>163</v>
-      </c>
+      <c r="B45" s="15"/>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B46" s="13">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C46" s="12" t="s">
         <v>276</v>
@@ -3360,155 +3345,159 @@
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="13">
+        <v>14</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="D47" s="12">
+        <v>1</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B48" s="13" t="s">
         <v>277</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="C48" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="D47" s="12">
+      <c r="D48" s="12">
         <v>8</v>
       </c>
-      <c r="E47" s="14" t="s">
+      <c r="E48" s="14" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B48" s="17">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B49" s="17">
         <v>19</v>
       </c>
-      <c r="C48" s="12" t="s">
+      <c r="C49" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="D48" s="12">
-        <v>1</v>
-      </c>
-      <c r="E48" s="14" t="s">
+      <c r="D49" s="12">
+        <v>1</v>
+      </c>
+      <c r="E49" s="14" t="s">
         <v>192</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B49" s="17"/>
-      <c r="C49" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="D49" s="12">
-        <v>31</v>
-      </c>
-      <c r="E49" s="14" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B50" s="17"/>
       <c r="C50" s="12" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="D50" s="12">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B51" s="17"/>
       <c r="C51" s="12" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="D51" s="12">
         <v>1</v>
       </c>
       <c r="E51" s="14" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B52" s="17"/>
       <c r="C52" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D52" s="12">
         <v>1</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B53" s="17"/>
       <c r="C53" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D53" s="12">
         <v>1</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>166</v>
+        <v>140</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B54" s="17"/>
       <c r="C54" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D54" s="12">
         <v>1</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B55" s="17"/>
       <c r="C55" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D55" s="12">
         <v>1</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B56" s="17"/>
       <c r="C56" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D56" s="12">
         <v>1</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B57" s="17"/>
       <c r="C57" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D57" s="12">
         <v>1</v>
       </c>
-      <c r="E57" s="18" t="s">
-        <v>193</v>
+      <c r="E57" s="14" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B58" s="17"/>
       <c r="C58" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D58" s="12">
         <v>1</v>
       </c>
-      <c r="E58" s="18"/>
+      <c r="E58" s="18" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B59" s="17"/>
       <c r="C59" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D59" s="12">
         <v>1</v>
@@ -3518,7 +3507,7 @@
     <row r="60" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B60" s="17"/>
       <c r="C60" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D60" s="12">
         <v>1</v>
@@ -3528,7 +3517,7 @@
     <row r="61" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B61" s="17"/>
       <c r="C61" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D61" s="12">
         <v>1</v>
@@ -3538,7 +3527,7 @@
     <row r="62" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B62" s="17"/>
       <c r="C62" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D62" s="12">
         <v>1</v>
@@ -3548,7 +3537,7 @@
     <row r="63" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B63" s="17"/>
       <c r="C63" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D63" s="12">
         <v>1</v>
@@ -3558,29 +3547,29 @@
     <row r="64" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B64" s="17"/>
       <c r="C64" s="12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D64" s="12">
         <v>1</v>
       </c>
-      <c r="E64" s="18" t="s">
-        <v>194</v>
-      </c>
+      <c r="E64" s="18"/>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B65" s="17"/>
       <c r="C65" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D65" s="12">
         <v>1</v>
       </c>
-      <c r="E65" s="18"/>
+      <c r="E65" s="18" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B66" s="17"/>
       <c r="C66" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D66" s="12">
         <v>1</v>
@@ -3590,7 +3579,7 @@
     <row r="67" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B67" s="17"/>
       <c r="C67" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D67" s="12">
         <v>1</v>
@@ -3600,7 +3589,7 @@
     <row r="68" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B68" s="17"/>
       <c r="C68" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D68" s="12">
         <v>1</v>
@@ -3610,7 +3599,7 @@
     <row r="69" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B69" s="17"/>
       <c r="C69" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D69" s="12">
         <v>1</v>
@@ -3620,197 +3609,197 @@
     <row r="70" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B70" s="17"/>
       <c r="C70" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="D70" s="12">
+        <v>1</v>
+      </c>
+      <c r="E70" s="18"/>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B71" s="17"/>
+      <c r="C71" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="D70" s="12">
-        <v>1</v>
-      </c>
-      <c r="E70" s="18"/>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B71" s="17">
+      <c r="D71" s="12">
+        <v>1</v>
+      </c>
+      <c r="E71" s="18"/>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B72" s="17">
         <v>20</v>
       </c>
-      <c r="C71" s="12" t="s">
+      <c r="C72" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="D71" s="12">
-        <v>1</v>
-      </c>
-      <c r="E71" s="14" t="s">
+      <c r="D72" s="12">
+        <v>1</v>
+      </c>
+      <c r="E72" s="14" t="s">
         <v>192</v>
-      </c>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B72" s="17"/>
-      <c r="C72" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="D72" s="12">
-        <v>31</v>
-      </c>
-      <c r="E72" s="14" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B73" s="17"/>
       <c r="C73" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D73" s="12">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="E73" s="14" t="s">
-        <v>198</v>
+        <v>152</v>
       </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B74" s="17"/>
       <c r="C74" s="12" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D74" s="12">
         <v>1</v>
       </c>
       <c r="E74" s="14" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B75" s="17"/>
       <c r="C75" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D75" s="12">
         <v>1</v>
       </c>
       <c r="E75" s="14" t="s">
-        <v>152</v>
+        <v>200</v>
       </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B76" s="17"/>
       <c r="C76" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D76" s="12">
         <v>1</v>
       </c>
       <c r="E76" s="14" t="s">
-        <v>210</v>
+        <v>152</v>
       </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B77" s="17"/>
       <c r="C77" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D77" s="12">
         <v>1</v>
       </c>
       <c r="E77" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B78" s="17"/>
       <c r="C78" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D78" s="12">
         <v>1</v>
       </c>
       <c r="E78" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B79" s="17"/>
       <c r="C79" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D79" s="12">
         <v>1</v>
       </c>
       <c r="E79" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B80" s="17"/>
       <c r="C80" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D80" s="12">
         <v>1</v>
       </c>
       <c r="E80" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B81" s="17"/>
       <c r="C81" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D81" s="12">
         <v>1</v>
       </c>
       <c r="E81" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B82" s="17"/>
       <c r="C82" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D82" s="12">
         <v>1</v>
       </c>
       <c r="E82" s="14" t="s">
-        <v>152</v>
+        <v>215</v>
       </c>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B83" s="17"/>
       <c r="C83" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D83" s="12">
         <v>1</v>
       </c>
       <c r="E83" s="14" t="s">
-        <v>216</v>
+        <v>152</v>
       </c>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B84" s="17"/>
       <c r="C84" s="12" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="D84" s="12">
         <v>1</v>
       </c>
-      <c r="E84" s="17" t="s">
-        <v>193</v>
+      <c r="E84" s="14" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B85" s="17"/>
       <c r="C85" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D85" s="12">
         <v>1</v>
       </c>
-      <c r="E85" s="17"/>
+      <c r="E85" s="17" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B86" s="17"/>
       <c r="C86" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D86" s="12">
         <v>1</v>
@@ -3820,7 +3809,7 @@
     <row r="87" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B87" s="17"/>
       <c r="C87" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D87" s="12">
         <v>1</v>
@@ -3830,7 +3819,7 @@
     <row r="88" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B88" s="17"/>
       <c r="C88" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D88" s="12">
         <v>1</v>
@@ -3840,7 +3829,7 @@
     <row r="89" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B89" s="17"/>
       <c r="C89" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D89" s="12">
         <v>1</v>
@@ -3850,7 +3839,7 @@
     <row r="90" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B90" s="17"/>
       <c r="C90" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D90" s="12">
         <v>1</v>
@@ -3860,7 +3849,7 @@
     <row r="91" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B91" s="17"/>
       <c r="C91" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D91" s="12">
         <v>1</v>
@@ -3870,7 +3859,7 @@
     <row r="92" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B92" s="17"/>
       <c r="C92" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D92" s="12">
         <v>1</v>
@@ -3880,7 +3869,7 @@
     <row r="93" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B93" s="17"/>
       <c r="C93" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D93" s="12">
         <v>1</v>
@@ -3890,7 +3879,7 @@
     <row r="94" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B94" s="17"/>
       <c r="C94" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D94" s="12">
         <v>1</v>
@@ -3900,29 +3889,29 @@
     <row r="95" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B95" s="17"/>
       <c r="C95" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D95" s="12">
         <v>1</v>
       </c>
-      <c r="E95" s="17" t="s">
-        <v>194</v>
-      </c>
+      <c r="E95" s="17"/>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B96" s="17"/>
       <c r="C96" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D96" s="12">
         <v>1</v>
       </c>
-      <c r="E96" s="17"/>
+      <c r="E96" s="17" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B97" s="17"/>
       <c r="C97" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D97" s="12">
         <v>1</v>
@@ -3932,7 +3921,7 @@
     <row r="98" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B98" s="17"/>
       <c r="C98" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D98" s="12">
         <v>1</v>
@@ -3942,7 +3931,7 @@
     <row r="99" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B99" s="17"/>
       <c r="C99" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D99" s="12">
         <v>1</v>
@@ -3952,7 +3941,7 @@
     <row r="100" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B100" s="17"/>
       <c r="C100" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D100" s="12">
         <v>1</v>
@@ -3962,7 +3951,7 @@
     <row r="101" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B101" s="17"/>
       <c r="C101" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D101" s="12">
         <v>1</v>
@@ -3972,7 +3961,7 @@
     <row r="102" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B102" s="17"/>
       <c r="C102" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D102" s="12">
         <v>1</v>
@@ -3982,7 +3971,7 @@
     <row r="103" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B103" s="17"/>
       <c r="C103" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D103" s="12">
         <v>1</v>
@@ -3992,7 +3981,7 @@
     <row r="104" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B104" s="17"/>
       <c r="C104" s="12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D104" s="12">
         <v>1</v>
@@ -4002,183 +3991,183 @@
     <row r="105" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B105" s="17"/>
       <c r="C105" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="D105" s="12">
+        <v>1</v>
+      </c>
+      <c r="E105" s="17"/>
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B106" s="17"/>
+      <c r="C106" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="D105" s="12">
-        <v>1</v>
-      </c>
-      <c r="E105" s="17"/>
-    </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B106" s="17">
+      <c r="D106" s="12">
+        <v>1</v>
+      </c>
+      <c r="E106" s="17"/>
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B107" s="17">
         <v>23</v>
       </c>
-      <c r="C106" s="12" t="s">
+      <c r="C107" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="D106" s="12">
-        <v>1</v>
-      </c>
-      <c r="E106" s="14" t="s">
+      <c r="D107" s="12">
+        <v>1</v>
+      </c>
+      <c r="E107" s="14" t="s">
         <v>192</v>
-      </c>
-    </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B107" s="17"/>
-      <c r="C107" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="D107" s="12">
-        <v>31</v>
-      </c>
-      <c r="E107" s="14" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B108" s="17"/>
       <c r="C108" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D108" s="12">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="E108" s="14" t="s">
-        <v>242</v>
+        <v>152</v>
       </c>
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B109" s="17"/>
       <c r="C109" s="12" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D109" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E109" s="14" t="s">
-        <v>152</v>
+        <v>242</v>
       </c>
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B110" s="17"/>
       <c r="C110" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D110" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E110" s="14" t="s">
-        <v>245</v>
+        <v>152</v>
       </c>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B111" s="17"/>
       <c r="C111" s="12" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D111" s="12">
         <v>1</v>
       </c>
       <c r="E111" s="14" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B112" s="17"/>
       <c r="C112" s="12" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="D112" s="12">
         <v>1</v>
       </c>
       <c r="E112" s="14" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B113" s="17"/>
       <c r="C113" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D113" s="12">
         <v>1</v>
       </c>
       <c r="E113" s="14" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B114" s="17"/>
       <c r="C114" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D114" s="12">
         <v>1</v>
       </c>
       <c r="E114" s="14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B115" s="17"/>
       <c r="C115" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D115" s="12">
         <v>1</v>
       </c>
       <c r="E115" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B116" s="17"/>
       <c r="C116" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D116" s="12">
         <v>1</v>
       </c>
       <c r="E116" s="14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B117" s="17"/>
       <c r="C117" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D117" s="12">
         <v>1</v>
       </c>
-      <c r="E117" s="17" t="s">
-        <v>193</v>
+      <c r="E117" s="14" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B118" s="17"/>
       <c r="C118" s="12" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="D118" s="12">
-        <v>3</v>
-      </c>
-      <c r="E118" s="17"/>
+        <v>1</v>
+      </c>
+      <c r="E118" s="17" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B119" s="17"/>
       <c r="C119" s="12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D119" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E119" s="17"/>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B120" s="17"/>
       <c r="C120" s="12" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="D120" s="12">
         <v>1</v>
@@ -4188,7 +4177,7 @@
     <row r="121" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B121" s="17"/>
       <c r="C121" s="12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D121" s="12">
         <v>1</v>
@@ -4198,7 +4187,7 @@
     <row r="122" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B122" s="17"/>
       <c r="C122" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D122" s="12">
         <v>1</v>
@@ -4208,7 +4197,7 @@
     <row r="123" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B123" s="17"/>
       <c r="C123" s="12" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="D123" s="12">
         <v>1</v>
@@ -4218,7 +4207,7 @@
     <row r="124" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B124" s="17"/>
       <c r="C124" s="12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D124" s="12">
         <v>1</v>
@@ -4228,7 +4217,7 @@
     <row r="125" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B125" s="17"/>
       <c r="C125" s="12" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="D125" s="12">
         <v>1</v>
@@ -4238,39 +4227,39 @@
     <row r="126" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B126" s="17"/>
       <c r="C126" s="12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D126" s="12">
         <v>1</v>
       </c>
-      <c r="E126" s="17" t="s">
-        <v>194</v>
-      </c>
+      <c r="E126" s="17"/>
     </row>
     <row r="127" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B127" s="17"/>
       <c r="C127" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D127" s="12">
-        <v>3</v>
-      </c>
-      <c r="E127" s="17"/>
+        <v>1</v>
+      </c>
+      <c r="E127" s="17" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="128" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B128" s="17"/>
       <c r="C128" s="12" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D128" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E128" s="17"/>
     </row>
     <row r="129" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B129" s="17"/>
       <c r="C129" s="12" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="D129" s="12">
         <v>1</v>
@@ -4280,7 +4269,7 @@
     <row r="130" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B130" s="17"/>
       <c r="C130" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D130" s="12">
         <v>1</v>
@@ -4290,7 +4279,7 @@
     <row r="131" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B131" s="17"/>
       <c r="C131" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D131" s="12">
         <v>1</v>
@@ -4300,7 +4289,7 @@
     <row r="132" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B132" s="17"/>
       <c r="C132" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D132" s="12">
         <v>1</v>
@@ -4310,7 +4299,7 @@
     <row r="133" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B133" s="17"/>
       <c r="C133" s="12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D133" s="12">
         <v>1</v>
@@ -4320,161 +4309,161 @@
     <row r="134" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B134" s="17"/>
       <c r="C134" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="D134" s="12">
+        <v>1</v>
+      </c>
+      <c r="E134" s="17"/>
+    </row>
+    <row r="135" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B135" s="17"/>
+      <c r="C135" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="D134" s="12">
-        <v>1</v>
-      </c>
-      <c r="E134" s="17"/>
-    </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B135" s="17">
+      <c r="D135" s="12">
+        <v>1</v>
+      </c>
+      <c r="E135" s="17"/>
+    </row>
+    <row r="136" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B136" s="17">
         <v>24</v>
       </c>
-      <c r="C135" s="12" t="s">
+      <c r="C136" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="D135" s="12">
-        <v>1</v>
-      </c>
-      <c r="E135" s="14" t="s">
+      <c r="D136" s="12">
+        <v>1</v>
+      </c>
+      <c r="E136" s="14" t="s">
         <v>192</v>
-      </c>
-    </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B136" s="17"/>
-      <c r="C136" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="D136" s="12">
-        <v>31</v>
-      </c>
-      <c r="E136" s="14" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="137" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B137" s="17"/>
       <c r="C137" s="12" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D137" s="12">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="E137" s="14" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="138" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B138" s="17"/>
       <c r="C138" s="12" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D138" s="12">
         <v>1</v>
       </c>
       <c r="E138" s="14" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
     </row>
     <row r="139" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B139" s="17"/>
       <c r="C139" s="12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D139" s="12">
         <v>1</v>
       </c>
       <c r="E139" s="14" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="140" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B140" s="17"/>
       <c r="C140" s="12" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D140" s="12">
         <v>1</v>
       </c>
       <c r="E140" s="14" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="141" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B141" s="17"/>
       <c r="C141" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D141" s="12">
         <v>1</v>
       </c>
       <c r="E141" s="14" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="142" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B142" s="17"/>
       <c r="C142" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D142" s="12">
         <v>1</v>
       </c>
       <c r="E142" s="14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="143" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B143" s="17"/>
       <c r="C143" s="12" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D143" s="12">
         <v>1</v>
       </c>
       <c r="E143" s="14" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="144" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B144" s="17"/>
       <c r="C144" s="12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D144" s="12">
         <v>1</v>
       </c>
       <c r="E144" s="14" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="145" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B145" s="17"/>
       <c r="C145" s="12" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="D145" s="12">
         <v>1</v>
       </c>
-      <c r="E145" s="17" t="s">
-        <v>193</v>
+      <c r="E145" s="14" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="146" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B146" s="17"/>
       <c r="C146" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D146" s="12">
         <v>1</v>
       </c>
-      <c r="E146" s="17"/>
+      <c r="E146" s="17" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="147" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B147" s="17"/>
       <c r="C147" s="12" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D147" s="12">
         <v>1</v>
@@ -4484,7 +4473,7 @@
     <row r="148" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B148" s="17"/>
       <c r="C148" s="12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D148" s="12">
         <v>1</v>
@@ -4494,7 +4483,7 @@
     <row r="149" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B149" s="17"/>
       <c r="C149" s="12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D149" s="12">
         <v>1</v>
@@ -4504,7 +4493,7 @@
     <row r="150" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B150" s="17"/>
       <c r="C150" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D150" s="12">
         <v>1</v>
@@ -4514,7 +4503,7 @@
     <row r="151" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B151" s="17"/>
       <c r="C151" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D151" s="12">
         <v>1</v>
@@ -4524,7 +4513,7 @@
     <row r="152" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B152" s="17"/>
       <c r="C152" s="12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D152" s="12">
         <v>1</v>
@@ -4534,29 +4523,29 @@
     <row r="153" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B153" s="17"/>
       <c r="C153" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D153" s="12">
         <v>1</v>
       </c>
-      <c r="E153" s="17" t="s">
-        <v>194</v>
-      </c>
+      <c r="E153" s="17"/>
     </row>
     <row r="154" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B154" s="17"/>
       <c r="C154" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D154" s="12">
         <v>1</v>
       </c>
-      <c r="E154" s="17"/>
+      <c r="E154" s="17" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="155" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B155" s="17"/>
       <c r="C155" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D155" s="12">
         <v>1</v>
@@ -4566,7 +4555,7 @@
     <row r="156" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B156" s="17"/>
       <c r="C156" s="12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D156" s="12">
         <v>1</v>
@@ -4576,7 +4565,7 @@
     <row r="157" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B157" s="17"/>
       <c r="C157" s="12" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D157" s="12">
         <v>1</v>
@@ -4586,7 +4575,7 @@
     <row r="158" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B158" s="17"/>
       <c r="C158" s="12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D158" s="12">
         <v>1</v>
@@ -4596,7 +4585,7 @@
     <row r="159" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B159" s="17"/>
       <c r="C159" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D159" s="12">
         <v>1</v>
@@ -4606,197 +4595,197 @@
     <row r="160" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B160" s="17"/>
       <c r="C160" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="D160" s="12">
+        <v>1</v>
+      </c>
+      <c r="E160" s="17"/>
+    </row>
+    <row r="161" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B161" s="17"/>
+      <c r="C161" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="D160" s="12">
-        <v>1</v>
-      </c>
-      <c r="E160" s="17"/>
-    </row>
-    <row r="161" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B161" s="17">
+      <c r="D161" s="12">
+        <v>1</v>
+      </c>
+      <c r="E161" s="17"/>
+    </row>
+    <row r="162" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B162" s="17">
         <v>27</v>
       </c>
-      <c r="C161" s="12" t="s">
+      <c r="C162" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="D161" s="12">
-        <v>1</v>
-      </c>
-      <c r="E161" s="14" t="s">
+      <c r="D162" s="12">
+        <v>1</v>
+      </c>
+      <c r="E162" s="14" t="s">
         <v>192</v>
-      </c>
-    </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B162" s="17"/>
-      <c r="C162" s="12" t="s">
-        <v>316</v>
-      </c>
-      <c r="D162" s="12">
-        <v>31</v>
-      </c>
-      <c r="E162" s="14" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="163" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B163" s="17"/>
       <c r="C163" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D163" s="12">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="E163" s="14" t="s">
-        <v>318</v>
+        <v>282</v>
       </c>
     </row>
     <row r="164" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B164" s="17"/>
       <c r="C164" s="12" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D164" s="12">
         <v>1</v>
       </c>
       <c r="E164" s="14" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="165" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B165" s="17"/>
       <c r="C165" s="12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D165" s="12">
         <v>1</v>
       </c>
       <c r="E165" s="14" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="166" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B166" s="17"/>
       <c r="C166" s="12" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D166" s="12">
         <v>1</v>
       </c>
       <c r="E166" s="14" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="167" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B167" s="17"/>
       <c r="C167" s="12" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D167" s="12">
         <v>1</v>
       </c>
       <c r="E167" s="14" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="168" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B168" s="17"/>
       <c r="C168" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D168" s="12">
         <v>1</v>
       </c>
       <c r="E168" s="14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="169" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B169" s="17"/>
       <c r="C169" s="12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D169" s="12">
         <v>1</v>
       </c>
       <c r="E169" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="170" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B170" s="17"/>
       <c r="C170" s="12" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D170" s="12">
         <v>1</v>
       </c>
       <c r="E170" s="14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="171" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B171" s="17"/>
       <c r="C171" s="12" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D171" s="12">
         <v>1</v>
       </c>
       <c r="E171" s="14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="172" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B172" s="17"/>
       <c r="C172" s="12" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D172" s="12">
         <v>1</v>
       </c>
       <c r="E172" s="14" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="173" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B173" s="17"/>
       <c r="C173" s="12" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D173" s="12">
         <v>1</v>
       </c>
       <c r="E173" s="14" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="174" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B174" s="17"/>
       <c r="C174" s="12" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D174" s="12">
         <v>1</v>
       </c>
-      <c r="E174" s="17" t="s">
-        <v>193</v>
+      <c r="E174" s="14" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="175" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B175" s="17"/>
       <c r="C175" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D175" s="12">
         <v>1</v>
       </c>
-      <c r="E175" s="17"/>
+      <c r="E175" s="17" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="176" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B176" s="17"/>
       <c r="C176" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D176" s="12">
         <v>1</v>
@@ -4806,7 +4795,7 @@
     <row r="177" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B177" s="17"/>
       <c r="C177" s="12" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D177" s="12">
         <v>1</v>
@@ -4816,7 +4805,7 @@
     <row r="178" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B178" s="17"/>
       <c r="C178" s="12" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D178" s="12">
         <v>1</v>
@@ -4826,7 +4815,7 @@
     <row r="179" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B179" s="17"/>
       <c r="C179" s="12" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D179" s="12">
         <v>1</v>
@@ -4836,7 +4825,7 @@
     <row r="180" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B180" s="17"/>
       <c r="C180" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D180" s="12">
         <v>1</v>
@@ -4846,7 +4835,7 @@
     <row r="181" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B181" s="17"/>
       <c r="C181" s="12" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D181" s="12">
         <v>1</v>
@@ -4856,7 +4845,7 @@
     <row r="182" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B182" s="17"/>
       <c r="C182" s="12" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D182" s="12">
         <v>1</v>
@@ -4866,7 +4855,7 @@
     <row r="183" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B183" s="17"/>
       <c r="C183" s="12" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D183" s="12">
         <v>1</v>
@@ -4876,7 +4865,7 @@
     <row r="184" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B184" s="17"/>
       <c r="C184" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D184" s="12">
         <v>1</v>
@@ -4886,29 +4875,29 @@
     <row r="185" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B185" s="17"/>
       <c r="C185" s="12" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D185" s="12">
         <v>1</v>
       </c>
-      <c r="E185" s="17" t="s">
-        <v>194</v>
-      </c>
+      <c r="E185" s="17"/>
     </row>
     <row r="186" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B186" s="17"/>
       <c r="C186" s="12" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D186" s="12">
         <v>1</v>
       </c>
-      <c r="E186" s="17"/>
+      <c r="E186" s="17" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="187" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B187" s="17"/>
       <c r="C187" s="12" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D187" s="12">
         <v>1</v>
@@ -4918,7 +4907,7 @@
     <row r="188" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B188" s="17"/>
       <c r="C188" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D188" s="12">
         <v>1</v>
@@ -4928,7 +4917,7 @@
     <row r="189" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B189" s="17"/>
       <c r="C189" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D189" s="12">
         <v>1</v>
@@ -4938,7 +4927,7 @@
     <row r="190" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B190" s="17"/>
       <c r="C190" s="12" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D190" s="12">
         <v>1</v>
@@ -4948,7 +4937,7 @@
     <row r="191" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B191" s="17"/>
       <c r="C191" s="12" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D191" s="12">
         <v>1</v>
@@ -4958,7 +4947,7 @@
     <row r="192" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B192" s="17"/>
       <c r="C192" s="12" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D192" s="12">
         <v>1</v>
@@ -4968,7 +4957,7 @@
     <row r="193" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B193" s="17"/>
       <c r="C193" s="12" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D193" s="12">
         <v>1</v>
@@ -4978,7 +4967,7 @@
     <row r="194" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B194" s="17"/>
       <c r="C194" s="12" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D194" s="12">
         <v>1</v>
@@ -4988,33 +4977,43 @@
     <row r="195" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B195" s="17"/>
       <c r="C195" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="D195" s="12">
+        <v>1</v>
+      </c>
+      <c r="E195" s="17"/>
+    </row>
+    <row r="196" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B196" s="17"/>
+      <c r="C196" s="12" t="s">
         <v>360</v>
       </c>
-      <c r="D195" s="12">
-        <v>1</v>
-      </c>
-      <c r="E195" s="17"/>
+      <c r="D196" s="12">
+        <v>1</v>
+      </c>
+      <c r="E196" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="E185:E195"/>
-    <mergeCell ref="B161:B195"/>
-    <mergeCell ref="B20:B31"/>
-    <mergeCell ref="E145:E152"/>
-    <mergeCell ref="E153:E160"/>
-    <mergeCell ref="B135:B160"/>
-    <mergeCell ref="E174:E184"/>
-    <mergeCell ref="B106:B134"/>
-    <mergeCell ref="E117:E125"/>
-    <mergeCell ref="E126:E134"/>
-    <mergeCell ref="E57:E63"/>
-    <mergeCell ref="E64:E70"/>
-    <mergeCell ref="B48:B70"/>
-    <mergeCell ref="B71:B105"/>
-    <mergeCell ref="E84:E94"/>
-    <mergeCell ref="E95:E105"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B2:B19"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B2:B20"/>
+    <mergeCell ref="E186:E196"/>
+    <mergeCell ref="B162:B196"/>
+    <mergeCell ref="B21:B32"/>
+    <mergeCell ref="E146:E153"/>
+    <mergeCell ref="E154:E161"/>
+    <mergeCell ref="B136:B161"/>
+    <mergeCell ref="E175:E185"/>
+    <mergeCell ref="B107:B135"/>
+    <mergeCell ref="E118:E126"/>
+    <mergeCell ref="E127:E135"/>
+    <mergeCell ref="E58:E64"/>
+    <mergeCell ref="E65:E71"/>
+    <mergeCell ref="B49:B71"/>
+    <mergeCell ref="B72:B106"/>
+    <mergeCell ref="E85:E95"/>
+    <mergeCell ref="E96:E106"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5089,24 +5088,24 @@
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
+        <v>395</v>
+      </c>
+      <c r="D9" t="s">
+        <v>398</v>
+      </c>
+      <c r="E9" t="s">
         <v>396</v>
-      </c>
-      <c r="D9" t="s">
-        <v>399</v>
-      </c>
-      <c r="E9" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="10" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D10" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
   </sheetData>
